--- a/Code/Results/Cases/Case_1_132/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_132/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.56523052482108</v>
+        <v>22.76743878352112</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.54804429648325</v>
+        <v>9.140147260761253</v>
       </c>
       <c r="E2">
-        <v>20.44754348931025</v>
+        <v>11.3745074639273</v>
       </c>
       <c r="F2">
-        <v>53.71540241074357</v>
+        <v>58.29784711056954</v>
       </c>
       <c r="G2">
-        <v>2.031872855050502</v>
+        <v>3.782636511991054</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.71420064238124</v>
+        <v>30.65602340278918</v>
       </c>
       <c r="J2">
-        <v>10.11261773351564</v>
+        <v>7.924709575475915</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>20.00351666948135</v>
+        <v>19.79125620569425</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.2706956595018</v>
+        <v>19.66492604090251</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.08331212803085</v>
+        <v>22.46943343895988</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.38877669355271</v>
+        <v>8.808267140785949</v>
       </c>
       <c r="E3">
-        <v>18.89757809018367</v>
+        <v>10.82820605269461</v>
       </c>
       <c r="F3">
-        <v>50.82203352130053</v>
+        <v>58.00964452658879</v>
       </c>
       <c r="G3">
-        <v>2.05549651294651</v>
+        <v>3.790019376043156</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.84914706026165</v>
+        <v>30.80469895541967</v>
       </c>
       <c r="J3">
-        <v>9.502356328230945</v>
+        <v>7.715299493542672</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.7503710433959</v>
+        <v>19.58109222547393</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.63850024142746</v>
+        <v>19.75111559920293</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.14860561100836</v>
+        <v>22.29033688655862</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.65603315777234</v>
+        <v>8.602129712792191</v>
       </c>
       <c r="E4">
-        <v>17.91495367350996</v>
+        <v>10.48261520367097</v>
       </c>
       <c r="F4">
-        <v>49.07870557205745</v>
+        <v>57.85272152179812</v>
       </c>
       <c r="G4">
-        <v>2.070030091131007</v>
+        <v>3.794774951946768</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.96287429071381</v>
+        <v>30.90319957693454</v>
       </c>
       <c r="J4">
-        <v>9.118841160814883</v>
+        <v>7.582686929866058</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.96993967450202</v>
+        <v>19.45674804697492</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.86329519762719</v>
+        <v>19.80615161317976</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.76143161171575</v>
+        <v>22.2184101678976</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.35161725324407</v>
+        <v>8.517679649608697</v>
       </c>
       <c r="E5">
-        <v>17.50606577351416</v>
+        <v>10.33944143732984</v>
       </c>
       <c r="F5">
-        <v>48.3760526783126</v>
+        <v>57.79382718427043</v>
       </c>
       <c r="G5">
-        <v>2.075976772034896</v>
+        <v>3.796769137401167</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.01618073823618</v>
+        <v>30.94514408392297</v>
       </c>
       <c r="J5">
-        <v>8.960151343885556</v>
+        <v>7.527669890929575</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>17.64900509687121</v>
+        <v>19.40730439047137</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.95487759244004</v>
+        <v>19.82911444107442</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.69676421422728</v>
+        <v>22.20653292974637</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.30070344737637</v>
+        <v>8.503634263276124</v>
       </c>
       <c r="E6">
-        <v>17.43764139071573</v>
+        <v>10.31553284813154</v>
       </c>
       <c r="F6">
-        <v>48.25983612890862</v>
+        <v>57.78435329402514</v>
       </c>
       <c r="G6">
-        <v>2.076966117038044</v>
+        <v>3.797103676730628</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.02543122747213</v>
+        <v>30.95221767504919</v>
       </c>
       <c r="J6">
-        <v>8.933651388058495</v>
+        <v>7.518476553226606</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>17.5955375089433</v>
+        <v>19.39916975549878</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.9700896423006</v>
+        <v>19.8329598226476</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.14340940114877</v>
+        <v>22.28936247420194</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.65195191492389</v>
+        <v>8.600992399193231</v>
       </c>
       <c r="E7">
-        <v>17.90947434571328</v>
+        <v>10.48069349500183</v>
       </c>
       <c r="F7">
-        <v>49.06919842540665</v>
+        <v>57.85190677860643</v>
       </c>
       <c r="G7">
-        <v>2.070110171970756</v>
+        <v>3.794801618066435</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.96356599615378</v>
+        <v>30.90375795985961</v>
       </c>
       <c r="J7">
-        <v>9.116710956644363</v>
+        <v>7.581948851655171</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.96562327041398</v>
+        <v>19.45607620268402</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.86453011638444</v>
+        <v>19.80645912650049</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.05934859350732</v>
+        <v>22.66393040967044</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>14.15231673916988</v>
+        <v>9.026289448363348</v>
       </c>
       <c r="E8">
-        <v>19.91909040200993</v>
+        <v>11.18836929015395</v>
       </c>
       <c r="F8">
-        <v>52.71040848113445</v>
+        <v>58.19432836332516</v>
       </c>
       <c r="G8">
-        <v>2.040023473214433</v>
+        <v>3.785136136889241</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.75380745212626</v>
+        <v>30.70578407451195</v>
       </c>
       <c r="J8">
-        <v>9.903896124356768</v>
+        <v>7.853364111025011</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>19.57358533556884</v>
+        <v>19.7178453874458</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.3978856669654</v>
+        <v>19.69420717641568</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.86997141571712</v>
+        <v>23.42560592882016</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.95905194053979</v>
+        <v>9.835726065192997</v>
       </c>
       <c r="E9">
-        <v>23.65264157479145</v>
+        <v>12.48766764655857</v>
       </c>
       <c r="F9">
-        <v>60.16417105269587</v>
+        <v>59.02372588726958</v>
       </c>
       <c r="G9">
-        <v>1.980301099092326</v>
+        <v>3.76793322454359</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.62989279732103</v>
+        <v>30.37521048139268</v>
       </c>
       <c r="J9">
-        <v>11.38988202414332</v>
+        <v>8.35208560854471</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>23.05918329828238</v>
+        <v>20.266285966311</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.46133105396896</v>
+        <v>19.49071235897537</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.64446465955566</v>
+        <v>23.99682981689741</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>18.99491077770143</v>
+        <v>10.40850428077383</v>
       </c>
       <c r="E10">
-        <v>26.33946441782068</v>
+        <v>13.46037264668452</v>
       </c>
       <c r="F10">
-        <v>66.01058612676476</v>
+        <v>59.7274016346478</v>
       </c>
       <c r="G10">
-        <v>1.934243063841172</v>
+        <v>3.75634190871166</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.78582576238396</v>
+        <v>30.16807566905796</v>
       </c>
       <c r="J10">
-        <v>12.47125909671222</v>
+        <v>8.696245916668701</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>25.64111349807764</v>
+        <v>20.68760239173575</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.73613031482824</v>
+        <v>19.35112603183493</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.8905594126813</v>
+        <v>24.25817148248617</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>19.93392658871491</v>
+        <v>10.66309620667537</v>
       </c>
       <c r="E11">
-        <v>27.57271618387713</v>
+        <v>13.92196127765591</v>
       </c>
       <c r="F11">
-        <v>68.92475375983339</v>
+        <v>60.06742573195956</v>
       </c>
       <c r="G11">
-        <v>1.912244573873702</v>
+        <v>3.751291908432276</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.93135771221204</v>
+        <v>30.08173802892676</v>
       </c>
       <c r="J11">
-        <v>12.96972854774752</v>
+        <v>8.847656425944466</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>26.81645673278534</v>
+        <v>20.88258827157543</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.39035264310046</v>
+        <v>19.28973155700286</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.36182787948772</v>
+        <v>24.35726268621883</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>20.29364058918998</v>
+        <v>10.75855928555937</v>
       </c>
       <c r="E12">
-        <v>28.04414726458539</v>
+        <v>14.09296522333941</v>
       </c>
       <c r="F12">
-        <v>70.04872913534574</v>
+        <v>60.19898841479765</v>
       </c>
       <c r="G12">
-        <v>1.903693709159687</v>
+        <v>3.749411323319951</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.99951185415609</v>
+        <v>30.05019024654166</v>
       </c>
       <c r="J12">
-        <v>13.16053970107196</v>
+        <v>8.904227420149256</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>27.26388630196255</v>
+        <v>20.95684529517258</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.25618513572777</v>
+        <v>19.26678190850678</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.26032424051996</v>
+        <v>24.33591735430159</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>20.21594039773554</v>
+        <v>10.73804292151959</v>
       </c>
       <c r="E13">
-        <v>27.94236216884879</v>
+        <v>14.05630468432616</v>
       </c>
       <c r="F13">
-        <v>69.80562066086665</v>
+        <v>60.17053041960207</v>
       </c>
       <c r="G13">
-        <v>1.905546502354146</v>
+        <v>3.749814934420368</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.98420955249403</v>
+        <v>30.05693344476434</v>
       </c>
       <c r="J13">
-        <v>13.11933131545052</v>
+        <v>8.892078222430246</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>27.16737486989501</v>
+        <v>20.94083496093869</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.2852429752382</v>
+        <v>19.27171127841849</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.92933090055256</v>
+        <v>24.26632172813874</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>19.96342159605536</v>
+        <v>10.67096941875818</v>
       </c>
       <c r="E14">
-        <v>27.61139224364464</v>
+        <v>13.93610570861174</v>
       </c>
       <c r="F14">
-        <v>69.01676799240572</v>
+        <v>60.07819367198424</v>
       </c>
       <c r="G14">
-        <v>1.911546004054434</v>
+        <v>3.75113655727751</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.93668778916872</v>
+        <v>30.0791195283846</v>
       </c>
       <c r="J14">
-        <v>12.98537762980771</v>
+        <v>8.852326015127179</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>26.85320405863087</v>
+        <v>20.88868935623336</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.37938597318587</v>
+        <v>19.28783750097855</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.7265712216696</v>
+        <v>24.22370634822908</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>19.80936631209865</v>
+        <v>10.62975944640485</v>
       </c>
       <c r="E15">
-        <v>27.40934252004642</v>
+        <v>13.8619874445516</v>
       </c>
       <c r="F15">
-        <v>68.53646994464839</v>
+        <v>60.02199784384713</v>
       </c>
       <c r="G15">
-        <v>1.915189633179425</v>
+        <v>3.751950213456476</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.90935770317787</v>
+        <v>30.09285880264774</v>
       </c>
       <c r="J15">
-        <v>12.90363472071913</v>
+        <v>8.827876352660242</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>26.66115226523286</v>
+        <v>20.85680164602861</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.43659687550311</v>
+        <v>19.29775412739628</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.56283885301831</v>
+        <v>23.97977298193168</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>18.93397963113648</v>
+        <v>10.39173830767096</v>
       </c>
       <c r="E16">
-        <v>26.25931016932246</v>
+        <v>13.42967533878691</v>
       </c>
       <c r="F16">
-        <v>65.8225946225992</v>
+        <v>59.70557597762767</v>
       </c>
       <c r="G16">
-        <v>1.935654227514743</v>
+        <v>3.756676397151963</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.77800044332912</v>
+        <v>30.17387780012279</v>
       </c>
       <c r="J16">
-        <v>12.43890022660451</v>
+        <v>8.686245115599879</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>25.56449175844133</v>
+        <v>20.67492157080584</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.75833463679887</v>
+        <v>19.35518034953966</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.84585244805965</v>
+        <v>23.8304464652882</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>18.40164001357056</v>
+        <v>10.24412600219975</v>
       </c>
       <c r="E17">
-        <v>25.5583436113857</v>
+        <v>13.15769457736941</v>
       </c>
       <c r="F17">
-        <v>64.23813445477023</v>
+        <v>59.51652146810602</v>
       </c>
       <c r="G17">
-        <v>1.947898045279405</v>
+        <v>3.759632633640122</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.71799137870629</v>
+        <v>30.22560931149668</v>
       </c>
       <c r="J17">
-        <v>12.1561440111936</v>
+        <v>8.598021794886353</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>24.8932907635973</v>
+        <v>20.56415471144976</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.95106662597637</v>
+        <v>19.39094592696155</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43182123325946</v>
+        <v>23.74470309238988</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>18.09649297798497</v>
+        <v>10.15866608374703</v>
       </c>
       <c r="E18">
-        <v>25.15598550713656</v>
+        <v>12.99876373917148</v>
       </c>
       <c r="F18">
-        <v>63.36534528959672</v>
+        <v>59.40966124090406</v>
       </c>
       <c r="G18">
-        <v>1.95484718582412</v>
+        <v>3.761353986786844</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.69032989094977</v>
+        <v>30.25610572385631</v>
       </c>
       <c r="J18">
-        <v>11.99404070952692</v>
+        <v>8.546794639513234</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>24.50713996235453</v>
+        <v>20.5007612022151</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.06049772970013</v>
+        <v>19.41171559230942</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.29131322658065</v>
+        <v>23.71569950257191</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.99329733359564</v>
+        <v>10.12963795802678</v>
       </c>
       <c r="E19">
-        <v>25.0198237105802</v>
+        <v>12.94775661980598</v>
       </c>
       <c r="F19">
-        <v>63.07144477224671</v>
+        <v>59.3738046721429</v>
       </c>
       <c r="G19">
-        <v>1.957185794358271</v>
+        <v>3.761940424537301</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.68208019766955</v>
+        <v>30.26655833297211</v>
       </c>
       <c r="J19">
-        <v>11.93921904177126</v>
+        <v>8.529367760221797</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>24.3763239046205</v>
+        <v>20.47935340965356</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.09732856032636</v>
+        <v>19.41878199851853</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.92233612292103</v>
+        <v>23.84632812929714</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>18.4581868315741</v>
+        <v>10.25989792123875</v>
       </c>
       <c r="E20">
-        <v>25.63286048827488</v>
+        <v>13.18690544637252</v>
       </c>
       <c r="F20">
-        <v>64.40046750336202</v>
+        <v>59.536452605323</v>
       </c>
       <c r="G20">
-        <v>1.94660474355626</v>
+        <v>3.75931576567825</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.72365518717891</v>
+        <v>30.22002554311873</v>
       </c>
       <c r="J20">
-        <v>12.18618224043257</v>
+        <v>8.607463536423825</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>24.96473723718948</v>
+        <v>20.57591368180886</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.9307031045704</v>
+        <v>19.38711812686174</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.02655114047534</v>
+        <v>24.28676089639276</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>20.03745797967594</v>
+        <v>10.69069683016809</v>
       </c>
       <c r="E21">
-        <v>27.70845795807436</v>
+        <v>13.9715137490737</v>
       </c>
       <c r="F21">
-        <v>69.24785403173402</v>
+        <v>60.10523966232347</v>
       </c>
       <c r="G21">
-        <v>1.909790479407534</v>
+        <v>3.750747505737437</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.95027038309304</v>
+        <v>30.07257172744057</v>
       </c>
       <c r="J21">
-        <v>13.0246563296396</v>
+        <v>8.864023141701505</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>26.94539776627702</v>
+        <v>20.90399484773341</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.35183079361493</v>
+        <v>19.28309274850315</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.39960588058356</v>
+        <v>24.57530909024392</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>21.09544797359357</v>
+        <v>10.96670563107336</v>
       </c>
       <c r="E22">
-        <v>29.09299999727796</v>
+        <v>14.46222152673291</v>
       </c>
       <c r="F22">
-        <v>72.56683819085666</v>
+        <v>60.49327974420869</v>
       </c>
       <c r="G22">
-        <v>1.884390432630594</v>
+        <v>3.74533250988092</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.17601392977413</v>
+        <v>29.98289008273679</v>
       </c>
       <c r="J22">
-        <v>13.58549088855605</v>
+        <v>9.027231904090328</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>28.25532560364372</v>
+        <v>21.12083655606481</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.953955780779813</v>
+        <v>19.21684794675618</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.6662287911905</v>
+        <v>24.42126979465991</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>20.52741159540841</v>
+        <v>10.81992777095727</v>
       </c>
       <c r="E23">
-        <v>28.35022631395</v>
+        <v>14.20233500550711</v>
       </c>
       <c r="F23">
-        <v>70.78117417564224</v>
+        <v>60.28470542563146</v>
       </c>
       <c r="G23">
-        <v>1.898100282465901</v>
+        <v>3.748205786750948</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.04747610263538</v>
+        <v>30.03013886975645</v>
       </c>
       <c r="J23">
-        <v>13.28449237159126</v>
+        <v>8.940540489171863</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>27.55379601592094</v>
+        <v>21.00490172078964</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.16851058238294</v>
+        <v>19.25204581906899</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.88776366079253</v>
+        <v>23.8391476908463</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>18.43261936412702</v>
+        <v>10.25276928518558</v>
       </c>
       <c r="E24">
-        <v>25.59916962283651</v>
+        <v>13.17370720485802</v>
       </c>
       <c r="F24">
-        <v>64.32704647260377</v>
+        <v>59.52743603441598</v>
       </c>
       <c r="G24">
-        <v>1.947189720681128</v>
+        <v>3.759458953840034</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.72107344456193</v>
+        <v>30.22254761318509</v>
       </c>
       <c r="J24">
-        <v>12.17260061069392</v>
+        <v>8.603196500499639</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>24.93243727876868</v>
+        <v>20.57059655035036</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.93991366323769</v>
+        <v>19.38884802852787</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.82547782116621</v>
+        <v>23.21715401339163</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.20931531861149</v>
+        <v>9.620146249723922</v>
       </c>
       <c r="E25">
-        <v>22.65866053121411</v>
+        <v>12.14662913021642</v>
       </c>
       <c r="F25">
-        <v>58.10490751227076</v>
+        <v>58.78261622329368</v>
       </c>
       <c r="G25">
-        <v>1.99668759507366</v>
+        <v>3.772401647360075</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.62604178183813</v>
+        <v>30.4584074186308</v>
       </c>
       <c r="J25">
-        <v>10.99197761192164</v>
+        <v>8.220955634814169</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>22.09782385616032</v>
+        <v>20.11446559251021</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.71911215600943</v>
+        <v>19.54400501693766</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_132/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_132/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.76743878352112</v>
+        <v>23.5652305248211</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.140147260761253</v>
+        <v>14.54804429648333</v>
       </c>
       <c r="E2">
-        <v>11.3745074639273</v>
+        <v>20.44754348931036</v>
       </c>
       <c r="F2">
-        <v>58.29784711056954</v>
+        <v>53.71540241074356</v>
       </c>
       <c r="G2">
-        <v>3.782636511991054</v>
+        <v>2.031872855050505</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.65602340278918</v>
+        <v>18.71420064238111</v>
       </c>
       <c r="J2">
-        <v>7.924709575475915</v>
+        <v>10.11261773351567</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.79125620569425</v>
+        <v>20.00351666948135</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.66492604090251</v>
+        <v>12.27069565950177</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.46943343895988</v>
+        <v>22.08331212803083</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.808267140785949</v>
+        <v>13.38877669355266</v>
       </c>
       <c r="E3">
-        <v>10.82820605269461</v>
+        <v>18.89757809018374</v>
       </c>
       <c r="F3">
-        <v>58.00964452658879</v>
+        <v>50.82203352130039</v>
       </c>
       <c r="G3">
-        <v>3.790019376043156</v>
+        <v>2.055496512946513</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.80469895541967</v>
+        <v>18.84914706026157</v>
       </c>
       <c r="J3">
-        <v>7.715299493542672</v>
+        <v>9.502356328231008</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>19.58109222547393</v>
+        <v>18.75037104339588</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.75111559920293</v>
+        <v>12.63850024142746</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.29033688655862</v>
+        <v>21.14860561100835</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.602129712792191</v>
+        <v>12.65603315777237</v>
       </c>
       <c r="E4">
-        <v>10.48261520367097</v>
+        <v>17.91495367350999</v>
       </c>
       <c r="F4">
-        <v>57.85272152179812</v>
+        <v>49.07870557205744</v>
       </c>
       <c r="G4">
-        <v>3.794774951946768</v>
+        <v>2.070030091131013</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30.90319957693454</v>
+        <v>18.96287429071381</v>
       </c>
       <c r="J4">
-        <v>7.582686929866058</v>
+        <v>9.118841160814924</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>19.45674804697492</v>
+        <v>17.969939674502</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.80615161317976</v>
+        <v>12.86329519762719</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.2184101678976</v>
+        <v>20.76143161171577</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.517679649608697</v>
+        <v>12.35161725324408</v>
       </c>
       <c r="E5">
-        <v>10.33944143732984</v>
+        <v>17.50606577351417</v>
       </c>
       <c r="F5">
-        <v>57.79382718427043</v>
+        <v>48.37605267831256</v>
       </c>
       <c r="G5">
-        <v>3.796769137401167</v>
+        <v>2.07597677203489</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.94514408392297</v>
+        <v>19.01618073823614</v>
       </c>
       <c r="J5">
-        <v>7.527669890929575</v>
+        <v>8.960151343885556</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>19.40730439047137</v>
+        <v>17.64900509687118</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.82911444107442</v>
+        <v>12.95487759244001</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.20653292974637</v>
+        <v>20.69676421422728</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.503634263276124</v>
+        <v>12.30070344737646</v>
       </c>
       <c r="E6">
-        <v>10.31553284813154</v>
+        <v>17.43764139071578</v>
       </c>
       <c r="F6">
-        <v>57.78435329402514</v>
+        <v>48.25983612890857</v>
       </c>
       <c r="G6">
-        <v>3.797103676730628</v>
+        <v>2.076966117038046</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.95221767504919</v>
+        <v>19.02543122747202</v>
       </c>
       <c r="J6">
-        <v>7.518476553226606</v>
+        <v>8.933651388058493</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>19.39916975549878</v>
+        <v>17.59553750894331</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.8329598226476</v>
+        <v>12.97008964230053</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.28936247420194</v>
+        <v>21.14340940114876</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.600992399193231</v>
+        <v>12.65195191492389</v>
       </c>
       <c r="E7">
-        <v>10.48069349500183</v>
+        <v>17.90947434571326</v>
       </c>
       <c r="F7">
-        <v>57.85190677860643</v>
+        <v>49.06919842540665</v>
       </c>
       <c r="G7">
-        <v>3.794801618066435</v>
+        <v>2.070110171970882</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30.90375795985961</v>
+        <v>18.96356599615383</v>
       </c>
       <c r="J7">
-        <v>7.581948851655171</v>
+        <v>9.116710956644331</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>19.45607620268402</v>
+        <v>17.96562327041399</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.80645912650049</v>
+        <v>12.86453011638444</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.66393040967044</v>
+        <v>23.05934859350734</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.026289448363348</v>
+        <v>14.1523167391697</v>
       </c>
       <c r="E8">
-        <v>11.18836929015395</v>
+        <v>19.91909040200976</v>
       </c>
       <c r="F8">
-        <v>58.19432836332516</v>
+        <v>52.71040848113447</v>
       </c>
       <c r="G8">
-        <v>3.785136136889241</v>
+        <v>2.040023473214562</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.70578407451195</v>
+        <v>18.7538074521264</v>
       </c>
       <c r="J8">
-        <v>7.853364111025011</v>
+        <v>9.903896124356768</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>19.7178453874458</v>
+        <v>19.57358533556882</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.69420717641568</v>
+        <v>12.39788566696543</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.42560592882016</v>
+        <v>26.86997141571715</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.835726065192997</v>
+        <v>16.95905194053977</v>
       </c>
       <c r="E9">
-        <v>12.48766764655857</v>
+        <v>23.6526415747915</v>
       </c>
       <c r="F9">
-        <v>59.02372588726958</v>
+        <v>60.16417105269591</v>
       </c>
       <c r="G9">
-        <v>3.76793322454359</v>
+        <v>1.980301099092202</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.37521048139268</v>
+        <v>18.62989279732099</v>
       </c>
       <c r="J9">
-        <v>8.35208560854471</v>
+        <v>11.3898820241434</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.266285966311</v>
+        <v>23.05918329828247</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.49071235897537</v>
+        <v>11.46133105396893</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.99682981689741</v>
+        <v>29.64446465955568</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.40850428077383</v>
+        <v>18.99491077770135</v>
       </c>
       <c r="E10">
-        <v>13.46037264668452</v>
+        <v>26.33946441782065</v>
       </c>
       <c r="F10">
-        <v>59.7274016346478</v>
+        <v>66.01058612676486</v>
       </c>
       <c r="G10">
-        <v>3.75634190871166</v>
+        <v>1.934243063841299</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.16807566905796</v>
+        <v>18.785825762384</v>
       </c>
       <c r="J10">
-        <v>8.696245916668701</v>
+        <v>12.47125909671225</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.68760239173575</v>
+        <v>25.64111349807764</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.35112603183493</v>
+        <v>10.73613031482827</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.25817148248617</v>
+        <v>30.89055941268133</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.66309620667537</v>
+        <v>19.9339265887151</v>
       </c>
       <c r="E11">
-        <v>13.92196127765591</v>
+        <v>27.5727161838772</v>
       </c>
       <c r="F11">
-        <v>60.06742573195956</v>
+        <v>68.92475375983351</v>
       </c>
       <c r="G11">
-        <v>3.751291908432276</v>
+        <v>1.912244573873585</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.08173802892676</v>
+        <v>18.931357712212</v>
       </c>
       <c r="J11">
-        <v>8.847656425944466</v>
+        <v>12.96972854774749</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.88258827157543</v>
+        <v>26.8164567327854</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.28973155700286</v>
+        <v>10.39035264310039</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.35726268621883</v>
+        <v>31.36182787948776</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.75855928555937</v>
+        <v>20.29364058919001</v>
       </c>
       <c r="E12">
-        <v>14.09296522333941</v>
+        <v>28.04414726458549</v>
       </c>
       <c r="F12">
-        <v>60.19898841479765</v>
+        <v>70.04872913534587</v>
       </c>
       <c r="G12">
-        <v>3.749411323319951</v>
+        <v>1.903693709159691</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.05019024654166</v>
+        <v>18.99951185415609</v>
       </c>
       <c r="J12">
-        <v>8.904227420149256</v>
+        <v>13.16053970107206</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.95684529517258</v>
+        <v>27.26388630196256</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.26678190850678</v>
+        <v>10.25618513572774</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.33591735430159</v>
+        <v>31.26032424051995</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.73804292151959</v>
+        <v>20.21594039773559</v>
       </c>
       <c r="E13">
-        <v>14.05630468432616</v>
+        <v>27.94236216884873</v>
       </c>
       <c r="F13">
-        <v>60.17053041960207</v>
+        <v>69.80562066086668</v>
       </c>
       <c r="G13">
-        <v>3.749814934420368</v>
+        <v>1.905546502354276</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.05693344476434</v>
+        <v>18.98420955249405</v>
       </c>
       <c r="J13">
-        <v>8.892078222430246</v>
+        <v>13.11933131545041</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.94083496093869</v>
+        <v>27.167374869895</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.27171127841849</v>
+        <v>10.2852429752381</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.26632172813874</v>
+        <v>30.9293309005525</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.67096941875818</v>
+        <v>19.96342159605528</v>
       </c>
       <c r="E14">
-        <v>13.93610570861174</v>
+        <v>27.61139224364459</v>
       </c>
       <c r="F14">
-        <v>60.07819367198424</v>
+        <v>69.01676799240551</v>
       </c>
       <c r="G14">
-        <v>3.75113655727751</v>
+        <v>1.911546004054439</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.0791195283846</v>
+        <v>18.9366877891688</v>
       </c>
       <c r="J14">
-        <v>8.852326015127179</v>
+        <v>12.98537762980768</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.88868935623336</v>
+        <v>26.8532040586308</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.28783750097855</v>
+        <v>10.37938597318601</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.22370634822908</v>
+        <v>30.72657122166956</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.62975944640485</v>
+        <v>19.80936631209864</v>
       </c>
       <c r="E15">
-        <v>13.8619874445516</v>
+        <v>27.40934252004644</v>
       </c>
       <c r="F15">
-        <v>60.02199784384713</v>
+        <v>68.53646994464849</v>
       </c>
       <c r="G15">
-        <v>3.751950213456476</v>
+        <v>1.915189633179408</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.09285880264774</v>
+        <v>18.90935770317795</v>
       </c>
       <c r="J15">
-        <v>8.827876352660242</v>
+        <v>12.90363472071915</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.85680164602861</v>
+        <v>26.66115226523292</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.29775412739628</v>
+        <v>10.43659687550314</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.97977298193168</v>
+        <v>29.56283885301828</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.39173830767096</v>
+        <v>18.93397963113645</v>
       </c>
       <c r="E16">
-        <v>13.42967533878691</v>
+        <v>26.2593101693224</v>
       </c>
       <c r="F16">
-        <v>59.70557597762767</v>
+        <v>65.8225946225991</v>
       </c>
       <c r="G16">
-        <v>3.756676397151963</v>
+        <v>1.935654227514731</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.17387780012279</v>
+        <v>18.77800044332923</v>
       </c>
       <c r="J16">
-        <v>8.686245115599879</v>
+        <v>12.43890022660447</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.67492157080584</v>
+        <v>25.56449175844128</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.35518034953966</v>
+        <v>10.75833463679894</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.8304464652882</v>
+        <v>28.84585244805966</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.24412600219975</v>
+        <v>18.40164001357053</v>
       </c>
       <c r="E17">
-        <v>13.15769457736941</v>
+        <v>25.55834361138566</v>
       </c>
       <c r="F17">
-        <v>59.51652146810602</v>
+        <v>64.23813445477032</v>
       </c>
       <c r="G17">
-        <v>3.759632633640122</v>
+        <v>1.947898045279025</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.22560931149668</v>
+        <v>18.71799137870631</v>
       </c>
       <c r="J17">
-        <v>8.598021794886353</v>
+        <v>12.15614401119364</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.56415471144976</v>
+        <v>24.89329076359731</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.39094592696155</v>
+        <v>10.95106662597636</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.74470309238988</v>
+        <v>28.43182123325955</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.15866608374703</v>
+        <v>18.09649297798505</v>
       </c>
       <c r="E18">
-        <v>12.99876373917148</v>
+        <v>25.15598550713665</v>
       </c>
       <c r="F18">
-        <v>59.40966124090406</v>
+        <v>63.36534528959689</v>
       </c>
       <c r="G18">
-        <v>3.761353986786844</v>
+        <v>1.954847185824231</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.25610572385631</v>
+        <v>18.69032989094973</v>
       </c>
       <c r="J18">
-        <v>8.546794639513234</v>
+        <v>11.99404070952695</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.5007612022151</v>
+        <v>24.5071399623546</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.41171559230942</v>
+        <v>11.06049772970006</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.71569950257191</v>
+        <v>28.29131322658067</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.12963795802678</v>
+        <v>17.99329733359557</v>
       </c>
       <c r="E19">
-        <v>12.94775661980598</v>
+        <v>25.01982371058025</v>
       </c>
       <c r="F19">
-        <v>59.3738046721429</v>
+        <v>63.07144477224682</v>
       </c>
       <c r="G19">
-        <v>3.761940424537301</v>
+        <v>1.957185794358025</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.26655833297211</v>
+        <v>18.68208019766952</v>
       </c>
       <c r="J19">
-        <v>8.529367760221797</v>
+        <v>11.93921904177137</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.47935340965356</v>
+        <v>24.37632390462053</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.41878199851853</v>
+        <v>11.09732856032626</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.84632812929714</v>
+        <v>28.92233612292106</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.25989792123875</v>
+        <v>18.45818683157416</v>
       </c>
       <c r="E20">
-        <v>13.18690544637252</v>
+        <v>25.63286048827493</v>
       </c>
       <c r="F20">
-        <v>59.536452605323</v>
+        <v>64.40046750336218</v>
       </c>
       <c r="G20">
-        <v>3.75931576567825</v>
+        <v>1.946604743556114</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.22002554311873</v>
+        <v>18.72365518717888</v>
       </c>
       <c r="J20">
-        <v>8.607463536423825</v>
+        <v>12.1861822404326</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.57591368180886</v>
+        <v>24.96473723718959</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.38711812686174</v>
+        <v>10.93070310457033</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.28676089639276</v>
+        <v>31.02655114047531</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.69069683016809</v>
+        <v>20.03745797967591</v>
       </c>
       <c r="E21">
-        <v>13.9715137490737</v>
+        <v>27.70845795807429</v>
       </c>
       <c r="F21">
-        <v>60.10523966232347</v>
+        <v>69.24785403173385</v>
       </c>
       <c r="G21">
-        <v>3.750747505737437</v>
+        <v>1.909790479407661</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.07257172744057</v>
+        <v>18.95027038309309</v>
       </c>
       <c r="J21">
-        <v>8.864023141701505</v>
+        <v>13.02465632963948</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.90399484773341</v>
+        <v>26.94539776627694</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.28309274850315</v>
+        <v>10.35183079361503</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.57530909024392</v>
+        <v>32.39960588058356</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.96670563107336</v>
+        <v>21.09544797359348</v>
       </c>
       <c r="E22">
-        <v>14.46222152673291</v>
+        <v>29.09299999727802</v>
       </c>
       <c r="F22">
-        <v>60.49327974420869</v>
+        <v>72.56683819085666</v>
       </c>
       <c r="G22">
-        <v>3.74533250988092</v>
+        <v>1.884390432630332</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>29.98289008273679</v>
+        <v>19.17601392977422</v>
       </c>
       <c r="J22">
-        <v>9.027231904090328</v>
+        <v>13.58549088855606</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>21.12083655606481</v>
+        <v>28.2553256036437</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.21684794675618</v>
+        <v>9.953955780779948</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.42126979465991</v>
+        <v>31.66622879119049</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.81992777095727</v>
+        <v>20.52741159540837</v>
       </c>
       <c r="E23">
-        <v>14.20233500550711</v>
+        <v>28.35022631394993</v>
       </c>
       <c r="F23">
-        <v>60.28470542563146</v>
+        <v>70.78117417564212</v>
       </c>
       <c r="G23">
-        <v>3.748205786750948</v>
+        <v>1.898100282465659</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.03013886975645</v>
+        <v>19.04747610263541</v>
       </c>
       <c r="J23">
-        <v>8.940540489171863</v>
+        <v>13.28449237159121</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>21.00490172078964</v>
+        <v>27.55379601592089</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.25204581906899</v>
+        <v>10.16851058238298</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.8391476908463</v>
+        <v>28.88776366079255</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.25276928518558</v>
+        <v>18.43261936412705</v>
       </c>
       <c r="E24">
-        <v>13.17370720485802</v>
+        <v>25.5991696228365</v>
       </c>
       <c r="F24">
-        <v>59.52743603441598</v>
+        <v>64.32704647260375</v>
       </c>
       <c r="G24">
-        <v>3.759458953840034</v>
+        <v>1.947189720681131</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.22254761318509</v>
+        <v>18.72107344456189</v>
       </c>
       <c r="J24">
-        <v>8.603196500499639</v>
+        <v>12.17260061069391</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.57059655035036</v>
+        <v>24.9324372787687</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.38884802852787</v>
+        <v>10.93991366323769</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.21715401339163</v>
+        <v>25.82547782116616</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.620146249723922</v>
+        <v>16.20931531861145</v>
       </c>
       <c r="E25">
-        <v>12.14662913021642</v>
+        <v>22.65866053121412</v>
       </c>
       <c r="F25">
-        <v>58.78261622329368</v>
+        <v>58.10490751227064</v>
       </c>
       <c r="G25">
-        <v>3.772401647360075</v>
+        <v>1.996687595074189</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.4584074186308</v>
+        <v>18.6260417818382</v>
       </c>
       <c r="J25">
-        <v>8.220955634814169</v>
+        <v>10.99197761192172</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.11446559251021</v>
+        <v>22.09782385616029</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.54400501693766</v>
+        <v>11.71911215600949</v>
       </c>
       <c r="O25">
         <v>0</v>
